--- a/biology/Histoire de la zoologie et de la botanique/Carl_Johan_Johansson/Carl_Johan_Johansson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Johan_Johansson/Carl_Johan_Johansson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Johan Johansson (ou Johanson) (né à Östra Thorsås (Småland) le 14 novembre 1858 et mort à Uppsala le 26 juin 1888) est un botaniste et mycologue suédois, mort noyé deux ans après la fin de ses études à Uppsala, en tentant de porter secours à quelqu'un[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Johan Johansson (ou Johanson) (né à Östra Thorsås (Småland) le 14 novembre 1858 et mort à Uppsala le 26 juin 1888) est un botaniste et mycologue suédois, mort noyé deux ans après la fin de ses études à Uppsala, en tentant de porter secours à quelqu'un.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Johan Johansson est l'auteur d'une dizaine d'articles dans Botaniska Notiser et dans les publications de l'académie royale des sciences de Suède.
-Il ne doit pas être confondu avec Carl Jahann Johanson, élève de Elias Magnus Fries, co-auteur avec celui-ci d'une thèse intitulée Monographia Mycenarum Sueciae, publiée à Uppsala en 1854[2].
+Il ne doit pas être confondu avec Carl Jahann Johanson, élève de Elias Magnus Fries, co-auteur avec celui-ci d'une thèse intitulée Monographia Mycenarum Sueciae, publiée à Uppsala en 1854.
 </t>
         </is>
       </c>
